--- a/Excel Files/Scenario 1/Expected Data/TC145/Expected Sales Order.xlsx
+++ b/Excel Files/Scenario 1/Expected Data/TC145/Expected Sales Order.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="120">
   <si>
     <t>#{Label_Title}</t>
   </si>
@@ -357,7 +357,7 @@
     <t>1234</t>
   </si>
   <si>
-    <t>sCB201-2311001</t>
+    <t>sDB204-2311001</t>
   </si>
   <si>
     <t>Firm</t>
@@ -369,13 +369,13 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>06 Nov 2023 - 12 Nov 2023</t>
+    <t>27 Nov 2023 - 03 Dec 2023</t>
   </si>
   <si>
     <t>By Invoice Date</t>
   </si>
   <si>
-    <t>13 Nov ~ 19 Nov</t>
+    <t>04 Dec ~ 10 Dec</t>
   </si>
   <si>
     <t>FC Qty 1</t>
@@ -387,7 +387,7 @@
     <t>SG-TTAP-s1-001</t>
   </si>
   <si>
-    <t>pCB201-2311001</t>
+    <t>pDB204-2311001</t>
   </si>
   <si>
     <t>PK-CUS-POC</t>
@@ -399,7 +399,7 @@
     <t>SGD</t>
   </si>
   <si>
-    <t>Completed</t>
+    <t>Processing</t>
   </si>
   <si>
     <t>s1002</t>
@@ -415,9 +415,6 @@
   </si>
   <si>
     <t>PC</t>
-  </si>
-  <si>
-    <t>Processing</t>
   </si>
   <si>
     <t>AUTHORIZATION:</t>
@@ -9553,8 +9550,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="23" max="16384" style="19" width="12.625" collapsed="true"/>
-    <col min="22" max="22" style="19" width="18.75" collapsed="true" customWidth="true"/>
+    <col min="22" max="16384" style="19" width="12.625" collapsed="true"/>
     <col min="21" max="21" style="19" width="18.75" collapsed="true" customWidth="true"/>
     <col min="20" max="20" style="19" width="18.75" collapsed="true" customWidth="true"/>
     <col min="16" max="18" style="19" width="12.625" collapsed="true"/>
@@ -9922,7 +9918,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="29" t="n">
-        <v>45231.0</v>
+        <v>45250.0</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -10031,7 +10027,6 @@
       <c r="U21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="V21" s="1"/>
     </row>
     <row r="22" spans="2:16" ht="25.5" customHeight="1">
       <c r="B22" s="32"/>
@@ -10056,7 +10051,6 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="32"/>
@@ -10076,19 +10070,16 @@
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="2" t="n">
-        <v>45238.0</v>
+        <v>45251.0</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>45280.0</v>
+        <v>45301.0</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>45306.0</v>
+        <v>45343.0</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>45236.0</v>
-      </c>
-      <c r="V23" s="2" t="n">
-        <v>45240.0</v>
+        <v>45272.0</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -10133,20 +10124,21 @@
         <v>112</v>
       </c>
       <c r="P24" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="R24" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
       <c r="S24" s="42" t="n">
         <v>1620.0</v>
       </c>
       <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
+      <c r="U24" s="42" t="n">
+        <v>1620.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" s="25" t="s">
@@ -10190,20 +10182,21 @@
         <v>112</v>
       </c>
       <c r="P25" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="R25" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
       <c r="S25" s="42" t="n">
         <v>1620.0</v>
       </c>
       <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
+      <c r="U25" s="42" t="n">
+        <v>1620.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="25" t="s">
@@ -10244,16 +10237,16 @@
         <v>1000.0</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P26" s="42" t="n">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="R26" s="42" t="n">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
       <c r="S26" s="42" t="n">
         <v>600.0</v>
@@ -10262,20 +10255,17 @@
         <v>200.0</v>
       </c>
       <c r="U26" s="42" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="V26" s="42" t="n">
-        <v>200.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="T29" s="41" t="s">
-        <v>119</v>
+      <c r="S29" s="41" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30">
-      <c r="T30" s="41" t="s">
-        <v>120</v>
+      <c r="S30" s="41" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -10301,7 +10291,7 @@
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="R21:R22"/>
     <mergeCell ref="S21:T22"/>
-    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="U21:U22"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
